--- a/Assets/StreamingAssets/buff_configs.xlsx
+++ b/Assets/StreamingAssets/buff_configs.xlsx
@@ -9,12 +9,50 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+    None,
+    AddAttack = 1,
+    AddSpeed = 2,
+    PullUp = 3,
+    PushDown = 4,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +110,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动条推后30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +157,19 @@
       <color theme="3" tint="0.39997558519241921"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -452,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -525,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -548,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
@@ -561,11 +616,35 @@
       </c>
       <c r="G4" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>